--- a/single-2/producRoudmap.xlsx
+++ b/single-2/producRoudmap.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Products</t>
   </si>
@@ -86,21 +86,6 @@
     <t>Засаждане на семена</t>
   </si>
   <si>
-    <t>Посадка</t>
-  </si>
-  <si>
-    <t>Полив</t>
-  </si>
-  <si>
-    <t>удобрение</t>
-  </si>
-  <si>
-    <t>Сбор урожая</t>
-  </si>
-  <si>
-    <t>Поддержка урожая</t>
-  </si>
-  <si>
     <t xml:space="preserve">Преговори за покупка на свободна територия </t>
   </si>
   <si>
@@ -129,6 +114,18 @@
   </si>
   <si>
     <t>Продажба на реколта</t>
+  </si>
+  <si>
+    <t>Поливане</t>
+  </si>
+  <si>
+    <t>Удобрение</t>
+  </si>
+  <si>
+    <t>Поддържка на реколта</t>
+  </si>
+  <si>
+    <t>Събиране на жътвата</t>
   </si>
 </sst>
 </file>
@@ -562,33 +559,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -607,10 +577,10 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -619,8 +589,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -908,7 +905,7 @@
   <dimension ref="A1:Z993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -932,29 +929,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="4"/>
       <c r="O1" s="1"/>
       <c r="Q1" s="1"/>
@@ -969,7 +966,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1020,7 +1017,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="10"/>
@@ -1051,10 +1048,10 @@
     </row>
     <row r="4" spans="1:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -1080,13 +1077,13 @@
     </row>
     <row r="5" spans="1:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="35"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -1109,11 +1106,11 @@
     </row>
     <row r="6" spans="1:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="35"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -1138,10 +1135,10 @@
     </row>
     <row r="7" spans="1:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="31"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -1173,13 +1170,13 @@
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="33" t="s">
-        <v>30</v>
+      <c r="E8" s="25" t="s">
+        <v>25</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="35"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -1199,19 +1196,19 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="21"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="37"/>
       <c r="N9" s="4"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1227,7 +1224,7 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="3"/>
@@ -1258,7 +1255,7 @@
     </row>
     <row r="11" spans="1:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1268,7 +1265,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="32"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="6"/>
@@ -1288,7 +1285,7 @@
     </row>
     <row r="12" spans="1:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1298,8 +1295,8 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="35"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="26"/>
       <c r="L12" s="3"/>
       <c r="M12" s="6"/>
       <c r="N12" s="4"/>
@@ -1318,7 +1315,7 @@
     </row>
     <row r="13" spans="1:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1328,8 +1325,8 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="35"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="26"/>
       <c r="L13" s="3"/>
       <c r="M13" s="6"/>
       <c r="N13" s="4"/>
@@ -1348,7 +1345,7 @@
     </row>
     <row r="14" spans="1:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1358,8 +1355,8 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="35"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="26"/>
       <c r="L14" s="3"/>
       <c r="M14" s="6"/>
       <c r="N14" s="4"/>
@@ -1378,7 +1375,7 @@
     </row>
     <row r="15" spans="1:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1390,7 +1387,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="32"/>
+      <c r="L15" s="23"/>
       <c r="M15" s="6"/>
       <c r="N15" s="4"/>
       <c r="O15" s="1"/>
@@ -1407,19 +1404,19 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="21"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="37"/>
       <c r="N16" s="4"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1435,8 +1432,8 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>31</v>
+      <c r="A17" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1447,8 +1444,8 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
       <c r="M17" s="6"/>
       <c r="N17" s="4"/>
       <c r="O17" s="1"/>
@@ -1465,8 +1462,8 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>32</v>
+      <c r="A18" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1479,7 +1476,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="37"/>
+      <c r="M18" s="24"/>
       <c r="N18" s="4"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1495,8 +1492,8 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>33</v>
+      <c r="A19" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1509,7 +1506,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="37"/>
+      <c r="M19" s="24"/>
       <c r="N19" s="4"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1525,8 +1522,8 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>34</v>
+      <c r="A20" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1539,7 +1536,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="37"/>
+      <c r="M20" s="24"/>
       <c r="N20" s="4"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1555,8 +1552,8 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>28</v>
+      <c r="A21" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1569,7 +1566,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="37"/>
+      <c r="M21" s="24"/>
       <c r="N21" s="4"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -1597,7 +1594,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="27"/>
+      <c r="M22" s="18"/>
       <c r="N22" s="4"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -1613,19 +1610,19 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="21"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="37"/>
       <c r="N23" s="4"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -1641,19 +1638,19 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -28802,22 +28799,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
     <mergeCell ref="A24:M24"/>
     <mergeCell ref="A23:M23"/>
     <mergeCell ref="A16:M16"/>
     <mergeCell ref="A9:M9"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
